--- a/excel_files/Comparison - NC_013411 & NC_014103.xlsx
+++ b/excel_files/Comparison - NC_013411 & NC_014103.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="82">
   <si>
     <t>NC_013411</t>
   </si>
@@ -137,142 +137,130 @@
     <t>-999</t>
   </si>
   <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>3.5*</t>
+  </si>
+  <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>4.0*</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
   </si>
   <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>3.5*</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>17.5</t>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>9.5*</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>7.5*</t>
+  </si>
+  <si>
+    <t>0*</t>
   </si>
   <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>4.0*</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>12.5*</t>
-  </si>
-  <si>
-    <t>9.5*</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
     <t>6.5</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>21.5</t>
   </si>
   <si>
-    <t>20.5</t>
-  </si>
-  <si>
     <t>8.5</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>18.5</t>
   </si>
 </sst>
 </file>
@@ -728,31 +716,31 @@
         <v>39</v>
       </c>
       <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
       <c r="R3" t="s">
         <v>39</v>
       </c>
       <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>50</v>
-      </c>
       <c r="V3" t="s">
         <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,31 +784,31 @@
         <v>39</v>
       </c>
       <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
       <c r="R4" t="s">
         <v>39</v>
       </c>
       <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>50</v>
-      </c>
       <c r="V4" t="s">
         <v>39</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -834,43 +822,43 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -882,13 +870,13 @@
         <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
         <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -899,16 +887,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -917,49 +905,49 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
         <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
         <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -973,37 +961,37 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
         <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
@@ -1015,19 +1003,19 @@
         <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
         <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
         <v>39</v>
       </c>
       <c r="W7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1035,61 +1023,61 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
         <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
         <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
         <v>39</v>
@@ -1103,67 +1091,67 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>67</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" t="s">
-        <v>62</v>
-      </c>
       <c r="T9" t="s">
         <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s">
         <v>39</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1239,67 +1227,67 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V11" t="s">
         <v>39</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1340,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
@@ -1443,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -1452,58 +1440,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" t="s">
-        <v>81</v>
-      </c>
       <c r="V14" t="s">
         <v>39</v>
       </c>
       <c r="W14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1579,67 +1567,67 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
         <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s">
         <v>39</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
         <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s">
         <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s">
         <v>39</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:23">
@@ -1789,31 +1777,31 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>52</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
         <v>39</v>
@@ -1825,25 +1813,25 @@
         <v>39</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R19" t="s">
         <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
         <v>39</v>
       </c>
       <c r="U19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
         <v>39</v>
       </c>
       <c r="W19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:23">
@@ -1890,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q20" t="s">
         <v>39</v>
